--- a/data/trans_orig/P57B4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>281013</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>251209</v>
+        <v>250262</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>310957</v>
+        <v>310485</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.407764367762375</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3645172270414121</v>
+        <v>0.3631422017896394</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4512145037731683</v>
+        <v>0.4505298837965219</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>337</v>
@@ -762,19 +762,19 @@
         <v>241777</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>220445</v>
+        <v>218078</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>265821</v>
+        <v>265129</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3351448713020037</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.305575474422895</v>
+        <v>0.3022943152882742</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.368474341262028</v>
+        <v>0.3675154595588674</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>578</v>
@@ -783,19 +783,19 @@
         <v>522790</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>485505</v>
+        <v>484806</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>561534</v>
+        <v>557433</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3706243643868785</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3441921165426578</v>
+        <v>0.3436965057714158</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3980915381074888</v>
+        <v>0.3951842563646548</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>280282</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>251364</v>
+        <v>255532</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>308196</v>
+        <v>308229</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4067038877173231</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3647421763941388</v>
+        <v>0.3707901298375815</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4472075580350209</v>
+        <v>0.4472558896941305</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>582</v>
@@ -833,19 +833,19 @@
         <v>336091</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>312806</v>
+        <v>315214</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>358455</v>
+        <v>360853</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4658813474450818</v>
+        <v>0.4658813474450819</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4336044308109939</v>
+        <v>0.4369415197265956</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4968817369604592</v>
+        <v>0.5002059996591984</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>907</v>
@@ -854,19 +854,19 @@
         <v>616373</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>581219</v>
+        <v>580328</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>649442</v>
+        <v>655777</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4369691905790916</v>
+        <v>0.4369691905790917</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4120469791780058</v>
+        <v>0.4114154118261003</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4604127940768473</v>
+        <v>0.4649034696013007</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>105079</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>87597</v>
+        <v>88106</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>124303</v>
+        <v>125296</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.152474317918022</v>
+        <v>0.1524743179180219</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1271071747895597</v>
+        <v>0.1278463825543264</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.180369535590402</v>
+        <v>0.1818111581537257</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>247</v>
@@ -904,19 +904,19 @@
         <v>115807</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>101108</v>
+        <v>101865</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>130654</v>
+        <v>130212</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1605287679251829</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1401541893383273</v>
+        <v>0.1412029130387199</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1811097987867385</v>
+        <v>0.1804972613186581</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>383</v>
@@ -925,19 +925,19 @@
         <v>220885</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>198727</v>
+        <v>199216</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>245498</v>
+        <v>247272</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1565936290539367</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1408848211397183</v>
+        <v>0.14123130740959</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1740425381377974</v>
+        <v>0.1752998010646385</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>22782</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14838</v>
+        <v>15254</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33860</v>
+        <v>34775</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03305742660227986</v>
+        <v>0.03305742660227985</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02153045635298748</v>
+        <v>0.02213405280065655</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04913234681207214</v>
+        <v>0.05046070737923169</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -975,19 +975,19 @@
         <v>27735</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20239</v>
+        <v>20740</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37206</v>
+        <v>36853</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03844501332773161</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0280548808053382</v>
+        <v>0.02874955240137584</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05157348545155693</v>
+        <v>0.05108541597973773</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>75</v>
@@ -996,19 +996,19 @@
         <v>50516</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39687</v>
+        <v>40072</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62912</v>
+        <v>64480</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03581281598009316</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02813530201987557</v>
+        <v>0.02840860944746263</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04460044835148245</v>
+        <v>0.04571237758663605</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>469016</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>433549</v>
+        <v>435306</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>505054</v>
+        <v>509715</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4487739375193305</v>
+        <v>0.4487739375193306</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4148376784073876</v>
+        <v>0.4165185233266324</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.483256559678351</v>
+        <v>0.4877165305043543</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>474</v>
@@ -1121,19 +1121,19 @@
         <v>389873</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>361914</v>
+        <v>361357</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>418348</v>
+        <v>419883</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3664088904271205</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3401325935061635</v>
+        <v>0.3396086697646386</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.393169768046131</v>
+        <v>0.3946120103196519</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>846</v>
@@ -1142,19 +1142,19 @@
         <v>858890</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>812798</v>
+        <v>811775</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>904606</v>
+        <v>905150</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4072217256588659</v>
+        <v>0.4072217256588658</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3853685746069257</v>
+        <v>0.3848832280842712</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4288968705418419</v>
+        <v>0.4291551162770182</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>448836</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>415159</v>
+        <v>411310</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>487660</v>
+        <v>483146</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4294643026078802</v>
+        <v>0.4294643026078803</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3972412032611001</v>
+        <v>0.3935583954353188</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4666130819340149</v>
+        <v>0.4622936091781104</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>708</v>
@@ -1192,19 +1192,19 @@
         <v>478049</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>450468</v>
+        <v>447928</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>511095</v>
+        <v>509051</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.449277534546621</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4233564081260873</v>
+        <v>0.4209696952414657</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4803350962393916</v>
+        <v>0.4784140691674744</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1152</v>
@@ -1213,19 +1213,19 @@
         <v>926885</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>882613</v>
+        <v>881339</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>974060</v>
+        <v>972583</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4394598485369368</v>
+        <v>0.4394598485369366</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4184694357877199</v>
+        <v>0.4178653245649873</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4618268935361058</v>
+        <v>0.4611267510793893</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>106208</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>88542</v>
+        <v>87916</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>127510</v>
+        <v>125994</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.101623929973465</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08472065825758275</v>
+        <v>0.08412164123416599</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1220067497113851</v>
+        <v>0.1205564454571893</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>281</v>
@@ -1263,19 +1263,19 @@
         <v>167582</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>148399</v>
+        <v>149396</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>187934</v>
+        <v>189788</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1574962510301069</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.139467416830311</v>
+        <v>0.1404048976726434</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.176623563218924</v>
+        <v>0.1783659467380338</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>402</v>
@@ -1284,19 +1284,19 @@
         <v>273790</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>246795</v>
+        <v>247342</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>303808</v>
+        <v>304778</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1298108685310593</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1170116917141985</v>
+        <v>0.117271053122695</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1440432140575567</v>
+        <v>0.1445031670220613</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>21046</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13033</v>
+        <v>13695</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32587</v>
+        <v>32802</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02013782989932414</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01247075281635784</v>
+        <v>0.01310381562256086</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0311806356256598</v>
+        <v>0.03138594646138533</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>41</v>
@@ -1334,19 +1334,19 @@
         <v>28535</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20660</v>
+        <v>20755</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>38849</v>
+        <v>39449</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02681732399615159</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01941644595044426</v>
+        <v>0.01950603362761852</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03651074731550683</v>
+        <v>0.03707461246517142</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>64</v>
@@ -1355,19 +1355,19 @@
         <v>49581</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>38170</v>
+        <v>38680</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>64611</v>
+        <v>64334</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.02350755727313812</v>
+        <v>0.02350755727313811</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01809733219233976</v>
+        <v>0.01833905809480967</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03063385156012137</v>
+        <v>0.03050259766066289</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>366300</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>337410</v>
+        <v>336363</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>399770</v>
+        <v>402235</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4613630376170241</v>
+        <v>0.4613630376170242</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4249755596963123</v>
+        <v>0.4236567235071416</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5035191649514801</v>
+        <v>0.5066242848574101</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>375</v>
@@ -1480,19 +1480,19 @@
         <v>312965</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>283741</v>
+        <v>287696</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>336992</v>
+        <v>338908</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3877821369018037</v>
+        <v>0.3877821369018038</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3515726022952083</v>
+        <v>0.3564731861836564</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4175535037942502</v>
+        <v>0.4199273791125266</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>660</v>
@@ -1501,19 +1501,19 @@
         <v>679264</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>636628</v>
+        <v>639022</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>721882</v>
+        <v>723782</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4242712666636942</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.397640317016037</v>
+        <v>0.3991360503011761</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4508907843773322</v>
+        <v>0.4520773409224573</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>337998</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>304251</v>
+        <v>305947</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>368684</v>
+        <v>369865</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4257161296788914</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3832109791511307</v>
+        <v>0.3853468718545913</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4643661920217498</v>
+        <v>0.4658531718325408</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>527</v>
@@ -1551,19 +1551,19 @@
         <v>392901</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>368197</v>
+        <v>367496</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>423757</v>
+        <v>419102</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4868279220919927</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4562181124177861</v>
+        <v>0.4553498809973063</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5250601057183184</v>
+        <v>0.5192929869796929</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>831</v>
@@ -1572,19 +1572,19 @@
         <v>730899</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>688460</v>
+        <v>688272</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>775200</v>
+        <v>771344</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.4565222843290929</v>
+        <v>0.4565222843290928</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.4300146759783161</v>
+        <v>0.429897350706278</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4841932271811725</v>
+        <v>0.4817844656446625</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>72684</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>54595</v>
+        <v>57109</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>90016</v>
+        <v>94233</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09154745569951131</v>
+        <v>0.09154745569951132</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06876348243562203</v>
+        <v>0.07192965597585926</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.113377076465201</v>
+        <v>0.1186888090011901</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>108</v>
@@ -1622,19 +1622,19 @@
         <v>79535</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>63949</v>
+        <v>65910</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>95653</v>
+        <v>96556</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.09854895268278026</v>
+        <v>0.09854895268278027</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07923697036840846</v>
+        <v>0.08166634411493354</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1185196995818571</v>
+        <v>0.1196390761056653</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>175</v>
@@ -1643,19 +1643,19 @@
         <v>152219</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>128211</v>
+        <v>128646</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>178015</v>
+        <v>177767</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09507687596903139</v>
+        <v>0.09507687596903136</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08008127129343783</v>
+        <v>0.08035267110560909</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1111886130401875</v>
+        <v>0.1110337721347347</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>16969</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9973</v>
+        <v>9944</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28088</v>
+        <v>26791</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.0213733770045732</v>
+        <v>0.02137337700457321</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0125610440775641</v>
+        <v>0.01252436888605555</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03537809902401124</v>
+        <v>0.03374412350057429</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -1693,19 +1693,19 @@
         <v>21662</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15123</v>
+        <v>15012</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30705</v>
+        <v>31081</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02684098832342342</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01873838531480934</v>
+        <v>0.01860019819835205</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03804557661616183</v>
+        <v>0.03851115325333958</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>45</v>
@@ -1714,19 +1714,19 @@
         <v>38632</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29078</v>
+        <v>28347</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>53501</v>
+        <v>51645</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.02412957303818164</v>
+        <v>0.02412957303818163</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01816246057374236</v>
+        <v>0.01770534353196969</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03341702253895741</v>
+        <v>0.03225761022724311</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>396715</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>362784</v>
+        <v>362412</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>430739</v>
+        <v>430499</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4029755298549014</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.368509099199528</v>
+        <v>0.3681310138622444</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4375360924381482</v>
+        <v>0.4372922360768162</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>483</v>
@@ -1839,19 +1839,19 @@
         <v>387213</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>356882</v>
+        <v>356950</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>419490</v>
+        <v>416731</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3483901273058583</v>
+        <v>0.3483901273058582</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3211009109957463</v>
+        <v>0.3211619017433915</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3774313154462268</v>
+        <v>0.3749485711939515</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>846</v>
@@ -1860,19 +1860,19 @@
         <v>783928</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>743069</v>
+        <v>736113</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>832833</v>
+        <v>827975</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3740294359581546</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3545346372999551</v>
+        <v>0.3512161110404932</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3973629998911464</v>
+        <v>0.3950451908014395</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>427344</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>395895</v>
+        <v>394004</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>460739</v>
+        <v>459579</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4340880392494804</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4021425128670536</v>
+        <v>0.4002213396773006</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4680098472390858</v>
+        <v>0.466831632598019</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>709</v>
@@ -1910,19 +1910,19 @@
         <v>486872</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>458472</v>
+        <v>459514</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>518468</v>
+        <v>516563</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4380573369949831</v>
+        <v>0.438057336994983</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4125046991498584</v>
+        <v>0.4134428295842295</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4664857742323698</v>
+        <v>0.4647713055095266</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1163</v>
@@ -1931,19 +1931,19 @@
         <v>914216</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>867478</v>
+        <v>868240</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>961850</v>
+        <v>956183</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4361929182075907</v>
+        <v>0.4361929182075908</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4138931380049701</v>
+        <v>0.414256745097207</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4589200002932082</v>
+        <v>0.456216063086944</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>142183</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>121652</v>
+        <v>122789</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>166692</v>
+        <v>165584</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1444267737383996</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1235712026966346</v>
+        <v>0.124726530219193</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1693225675640792</v>
+        <v>0.1681969564860512</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>303</v>
@@ -1981,19 +1981,19 @@
         <v>199595</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>178876</v>
+        <v>177863</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>223282</v>
+        <v>221741</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1795834191637287</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1609420351983932</v>
+        <v>0.1600305563303703</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.200895647657444</v>
+        <v>0.1995085147676655</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>465</v>
@@ -2002,19 +2002,19 @@
         <v>341778</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>313938</v>
+        <v>313061</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>379363</v>
+        <v>376532</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1630699917427348</v>
+        <v>0.1630699917427349</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1497868777057329</v>
+        <v>0.1493685172263088</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1810025388838518</v>
+        <v>0.1796516438312518</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>18222</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11497</v>
+        <v>11170</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27752</v>
+        <v>26955</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01850965715721861</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01167842398646025</v>
+        <v>0.01134602958258449</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02819017803186155</v>
+        <v>0.02738008778003944</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -2052,19 +2052,19 @@
         <v>37754</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29026</v>
+        <v>28891</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48922</v>
+        <v>48252</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03396911653542996</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02611546147577948</v>
+        <v>0.02599451043551771</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04401744728159902</v>
+        <v>0.04341402195182907</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>78</v>
@@ -2073,19 +2073,19 @@
         <v>55977</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>45253</v>
+        <v>45039</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>70593</v>
+        <v>71320</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.02670765409151972</v>
+        <v>0.02670765409151973</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02159112590201447</v>
+        <v>0.02148888640305444</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03368159151974996</v>
+        <v>0.03402827651783175</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>1513044</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1450404</v>
+        <v>1448498</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1579261</v>
+        <v>1585067</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4307381886268605</v>
+        <v>0.4307381886268606</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4129054789151938</v>
+        <v>0.4123630386398477</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.449589142698041</v>
+        <v>0.4512419471670017</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1669</v>
@@ -2198,19 +2198,19 @@
         <v>1331827</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1281274</v>
+        <v>1280262</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1386930</v>
+        <v>1387966</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3595698982142326</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3459212384353534</v>
+        <v>0.3456481749619632</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3744466156887806</v>
+        <v>0.3747264367984442</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2930</v>
@@ -2219,19 +2219,19 @@
         <v>2844872</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2758009</v>
+        <v>2763992</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2930870</v>
+        <v>2934465</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3942109207358679</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3821744636909282</v>
+        <v>0.3830034585482122</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4061276670809728</v>
+        <v>0.4066257829534951</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>1494460</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1432733</v>
+        <v>1431694</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1560528</v>
+        <v>1564499</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4254475862119282</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4078750678906184</v>
+        <v>0.407579110857184</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4442561026301529</v>
+        <v>0.4453864785212714</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2526</v>
@@ -2269,19 +2269,19 @@
         <v>1693913</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1641877</v>
+        <v>1640537</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1753795</v>
+        <v>1749604</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4573265666087384</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4432777750606918</v>
+        <v>0.4429159833549037</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4734936392798559</v>
+        <v>0.4723622901658014</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4053</v>
@@ -2290,19 +2290,19 @@
         <v>3188373</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3109682</v>
+        <v>3105587</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3278004</v>
+        <v>3274837</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4418095368825793</v>
+        <v>0.4418095368825792</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4309054574118611</v>
+        <v>0.4303380384694795</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4542296582668883</v>
+        <v>0.4537907308243793</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>426154</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>388620</v>
+        <v>383810</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>467432</v>
+        <v>468421</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1213187353987604</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1106336496870671</v>
+        <v>0.1092642627995567</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1330698804533241</v>
+        <v>0.1333516961310523</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>939</v>
@@ -2340,19 +2340,19 @@
         <v>562520</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>530017</v>
+        <v>531745</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>601078</v>
+        <v>599392</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.151870334543739</v>
+        <v>0.1518703345437391</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1430953093535298</v>
+        <v>0.1435618118093875</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.162280532136376</v>
+        <v>0.1618253373858431</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1425</v>
@@ -2361,19 +2361,19 @@
         <v>988673</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>936790</v>
+        <v>937700</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1047927</v>
+        <v>1042212</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1369994049778184</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1298099826896642</v>
+        <v>0.1299361269670918</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1452102279007052</v>
+        <v>0.1444182163696284</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>79019</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>63246</v>
+        <v>62815</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>98205</v>
+        <v>97537</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02249548976245088</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01800508817111636</v>
+        <v>0.01788223785904175</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02795724835839889</v>
+        <v>0.02776723113268535</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>176</v>
@@ -2411,19 +2411,19 @@
         <v>115686</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>99144</v>
+        <v>99733</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>132831</v>
+        <v>136848</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03123320063328991</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02676713872223161</v>
+        <v>0.02692613650156579</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03586205813343375</v>
+        <v>0.03694650436428704</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>262</v>
@@ -2432,19 +2432,19 @@
         <v>194705</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>171197</v>
+        <v>170989</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>220643</v>
+        <v>219249</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02698013740373445</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02372261272571326</v>
+        <v>0.02369376282714008</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.03057427023232233</v>
+        <v>0.03038106582083199</v>
       </c>
     </row>
     <row r="28">
